--- a/ComparisonAgent_Output/Azure Synapse to Fabric Workflow1_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/Azure Synapse to Fabric Workflow1_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,18 +9,21 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Match_Percentage_Interpretation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Dimension_Analysis_Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Consolidated_Results_Table" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Component_Status_Overview_Table" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Component_Sales_Fact_ETL_Proced" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_Sales_Fact_ETL_Plan" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Risk_Factors_Table" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Migration_Readiness_Assessment_" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Final_Decision_Table" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Action_Items_Table" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table_3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="4_DIMENSIONBASED_COMPARISON" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="5_OVERALL_COMPARISON_RESULTS" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="6_FILELEVEL_COMPARISON_COMPONEN" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Component_Recon_Tester" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Component_Unit_Test" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_Converter" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_Conversion_Tester" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="10_FINAL_RECOMMENDATION_CLOSING" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table_5" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 03:29:13</t>
+          <t>2026-01-12 04:30:09</t>
         </is>
       </c>
     </row>
@@ -481,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -504,9 +507,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,12 +542,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Plan.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_fabric_plan.txt</t>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -561,17 +564,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-22 / -15.4%</t>
+          <t>-12 / -5.3%</t>
         </is>
       </c>
     </row>
@@ -583,17 +586,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -605,17 +608,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -654,7 +657,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -676,7 +679,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -698,7 +701,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -725,7 +728,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.0%</t>
+          <t>97.8%</t>
         </is>
       </c>
     </row>
@@ -747,7 +750,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -757,6 +760,807 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Synapse_To_Fabric_Converter.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-6 / -2.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>99/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-9 / -4.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-12 / -6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -772,8 +1576,8 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="38" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -801,44 +1605,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation Gap</t>
+          <t>Formatting Changes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AAVA 2.0 lacks full documentation parity</t>
+          <t>Minor edits to comments and whitespace</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Update documentation post-migration</t>
+          <t>No action required</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Audit Logging Model</t>
+          <t>Documentation Edits</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Audit logging logic differs due to platform</t>
+          <t>Updated docstrings and review notes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Validate audit logs in Fabric, align</t>
+          <t>No action required</t>
         </is>
       </c>
     </row>
@@ -847,7 +1651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,8 +1666,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -896,7 +1700,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All business logic and data quality rules match</t>
+          <t>All logic and outcomes preserved</t>
         </is>
       </c>
     </row>
@@ -908,12 +1712,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Core tests maintained, coverage slightly reduced</t>
+          <t>All unit and conversion tests present</t>
         </is>
       </c>
     </row>
@@ -930,7 +1734,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No performance regressions detected</t>
+          <t>No performance degradation detected</t>
         </is>
       </c>
     </row>
@@ -942,12 +1746,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Insufficient</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AAVA 2.0 missing full docs</t>
+          <t>All review and documentation updated</t>
         </is>
       </c>
     </row>
@@ -964,7 +1768,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All dependencies and controls present</t>
+          <t>All migration prerequisites confirmed</t>
         </is>
       </c>
     </row>
@@ -981,7 +1785,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Safe to proceed with migration</t>
+          <t>No blockers or conditions identified</t>
         </is>
       </c>
     </row>
@@ -990,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1040,7 +1844,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Functional and business logic equivalence with minor structural changes</t>
+          <t>All components scored above 97.6% with full equivalence and zero migration impact.</t>
         </is>
       </c>
     </row>
@@ -1073,13 +1877,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,9 +1892,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1118,12 +1922,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Update documentation for AAVA 2.0</t>
+          <t>Communicate migration readiness</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1133,29 +1937,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 weeks</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Validate Fabric audit logging output</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Workflow Owner / AAVA Team</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1 week</t>
+          <t>Immediate</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,8 +1960,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="37" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="38" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
@@ -1233,12 +2015,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sales Fact ETL Procedure (Analyzer)</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1248,12 +2030,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±28</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.0%</t>
+          <t>98.2%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1263,81 +2045,81 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>89/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sales Fact ETL Documentation</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sales Fact ETL Plan</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Plan.txt</t>
+          <t>DI_Synapse_To_Fabric_Converter.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_fabric_plan.txt</t>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±22</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.0%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1347,39 +2129,39 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>85/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OVERALL SUMMARY</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 files</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2 files</t>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Avg ±25 lines</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.0%</t>
+          <t>97.6%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1389,12 +2171,96 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>87/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Conversion Tester</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>±12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.9%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Equivalent</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Plan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>_azure_synapse_to_fabric_plan.txt</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1418,7 +2284,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1441,7 +2307,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1465,7 +2331,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1477,7 +2343,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1501,7 +2367,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -1526,7 +2392,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1554,12 +2420,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direct name match or role recognition</t>
+          <t>Direct name match, role recognition</t>
         </is>
       </c>
     </row>
@@ -1571,12 +2437,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Content similarity analysis</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1593,7 +2459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alphabetical sequential pairing</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1618,7 +2484,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1668,7 +2534,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Only formatting or minor structural</t>
+          <t>Only formatting or minor structural changes</t>
         </is>
       </c>
     </row>
@@ -1743,8 +2609,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -1778,7 +2644,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Core business rules and calculation</t>
+          <t>Core business rules and calculation outcomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1788,7 +2654,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1800,17 +2666,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Technical correctness and standards</t>
+          <t>Technical correctness and modern standards</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1822,7 +2688,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data processing and transformation</t>
+          <t>Data processing and transformation logic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1832,7 +2698,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1844,17 +2710,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Decision-making and branching</t>
+          <t>Decision-making and branching structures</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1888,7 +2754,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Efficiency and optimization</t>
+          <t>Efficiency and optimization approaches</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1915,12 +2781,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1937,12 +2803,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1959,12 +2825,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mismatch</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1986,7 +2852,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2874,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2901,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2073,22 +2939,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1,246</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1,232</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-53 / -9.1%</t>
+          <t>-14 / -1.1%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2100,22 +2966,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-2 / -16.7%</t>
+          <t>0 / 0%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2127,22 +2993,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-3 / -21.4%</t>
+          <t>0 / 0%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2169,7 +3035,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Fully equivalent</t>
         </is>
       </c>
     </row>
@@ -2191,12 +3057,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0 files</t>
+          <t>5 files</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Minimal differences</t>
         </is>
       </c>
     </row>
@@ -2223,7 +3089,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Refactored</t>
         </is>
       </c>
     </row>
@@ -2245,12 +3111,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2 files</t>
+          <t>0 files</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Significant differences</t>
         </is>
       </c>
     </row>
@@ -2272,12 +3138,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.0%</t>
+          <t>98.0%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2292,7 +3158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2300,14 +3166,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="37" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="38" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2355,12 +3221,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sales Fact ETL Procedure (Analyzer)</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2375,81 +3241,81 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±28</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>89.0%</t>
+          <t>98.2%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>89/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sales Fact ETL Documentation</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>DI_Azure_Synapse_To_Fabric_UnitTest.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sales Fact ETL Plan</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Plan.txt</t>
+          <t>DI_Synapse_To_Fabric_Converter.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>_azure_synapse_to_fabric_plan.txt</t>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2459,22 +3325,106 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±22</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85.0%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>85/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>_DI_Azure_Synapse_To_Fabric_Reviewer.txt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>±9</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>97.6%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Conversion Tester</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DI_Azure_Synapse_To_Fabric_Conversion_Tester.txt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>azure_synapse_to_fabric_analyzer.txt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>±12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>97.9%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2498,7 +3448,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="43" customWidth="1" min="2" max="2"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
     <col width="38" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
@@ -2533,7 +3483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>_DI_Azure_Synapse_To_Fabric_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2555,17 +3505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-28 / -8.9%</t>
+          <t>-14 / -5.6%</t>
         </is>
       </c>
     </row>
@@ -2577,17 +3527,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2599,17 +3549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2648,7 +3598,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2670,7 +3620,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2692,7 +3642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2719,7 +3669,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.0%</t>
+          <t>98.2%</t>
         </is>
       </c>
     </row>
@@ -2741,7 +3691,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89/100</t>
+          <t>99/100</t>
         </is>
       </c>
     </row>
